--- a/My 3D RPG/Assets/StaticData/Excel/NPC.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/NPC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,103 +30,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>npcType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPCType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npcPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npcRot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, -170, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-42, 4.735, -3 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-21.5, 4.73, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourcePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Actor/NPC/Amber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Actor/NPC/Beidou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, 101, 102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200, 201, 202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,  87.5, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needQuestIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseSpeech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000, 1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이도우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>npcType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPCType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stageIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npcPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beidou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npcRot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0, -170, 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">-42, 4.735, -3 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-21.5, 4.73, 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourcePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Actor/NPC/Amber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Actor/NPC/Beidou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100, 101, 102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200, 201, 202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,  87.5, 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>needQuestIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseSpeech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,67 +491,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
     <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="26.75" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
+      <c r="K1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -544,39 +563,42 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>1000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -584,31 +606,34 @@
       <c r="H3">
         <v>1000</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>1000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -616,11 +641,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/My 3D RPG/Assets/StaticData/Excel/NPC.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/NPC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000, 1001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +498,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -506,9 +510,9 @@
     <col min="6" max="6" width="14.375" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
     <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="10.125" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -603,8 +607,8 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>1000</v>
+      <c r="H3" t="s">
+        <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
